--- a/Project Files/Words.xlsx
+++ b/Project Files/Words.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="205">
   <si>
     <t>Letters</t>
   </si>
@@ -625,6 +625,15 @@
   </si>
   <si>
     <t>Addon Objects +</t>
+  </si>
+  <si>
+    <t>Queen Latifah</t>
+  </si>
+  <si>
+    <t>Velociraptor</t>
+  </si>
+  <si>
+    <t>Xmen</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1075,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,6 +1593,9 @@
       <c r="A18" s="13" t="s">
         <v>128</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>129</v>
       </c>
@@ -1705,6 +1717,9 @@
       <c r="A23" s="13" t="s">
         <v>158</v>
       </c>
+      <c r="B23" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="F23" s="14" t="s">
         <v>159</v>
       </c>
@@ -1744,6 +1759,9 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>168</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>169</v>

--- a/Project Files/Words.xlsx
+++ b/Project Files/Words.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="228">
   <si>
     <t>Letters</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Objects</t>
   </si>
   <si>
-    <t>Objects 2</t>
-  </si>
-  <si>
     <t>Places +</t>
   </si>
   <si>
@@ -621,9 +618,6 @@
     <t>Names 3</t>
   </si>
   <si>
-    <t>Places 2</t>
-  </si>
-  <si>
     <t>Addon Objects +</t>
   </si>
   <si>
@@ -634,6 +628,81 @@
   </si>
   <si>
     <t>Xmen</t>
+  </si>
+  <si>
+    <t>Romeo &amp; Juliet</t>
+  </si>
+  <si>
+    <t>Chip &amp; Dale</t>
+  </si>
+  <si>
+    <t>Tom &amp; Jerry</t>
+  </si>
+  <si>
+    <t>Names Duo</t>
+  </si>
+  <si>
+    <t>Bonnie &amp; Clide</t>
+  </si>
+  <si>
+    <t>Pinky &amp; the Brain</t>
+  </si>
+  <si>
+    <t>Batman &amp; Robin</t>
+  </si>
+  <si>
+    <t>Garfield</t>
+  </si>
+  <si>
+    <t>Nemo</t>
+  </si>
+  <si>
+    <t>Timon &amp; Pumbaa</t>
+  </si>
+  <si>
+    <t>Rapunzel</t>
+  </si>
+  <si>
+    <t>Lilo &amp; Stitch</t>
+  </si>
+  <si>
+    <t>Tinkerbell</t>
+  </si>
+  <si>
+    <t>Pinoccio</t>
+  </si>
+  <si>
+    <t>Hercules</t>
+  </si>
+  <si>
+    <t>Lumiere</t>
+  </si>
+  <si>
+    <t>Woody</t>
+  </si>
+  <si>
+    <t>Joker</t>
+  </si>
+  <si>
+    <t>Rio</t>
+  </si>
+  <si>
+    <t>Itchy &amp; Scratchy</t>
+  </si>
+  <si>
+    <t>Adam &amp; Eve</t>
+  </si>
+  <si>
+    <t>insulting</t>
+  </si>
+  <si>
+    <t>auctioning</t>
+  </si>
+  <si>
+    <t>loving</t>
+  </si>
+  <si>
+    <t>needing</t>
   </si>
 </sst>
 </file>
@@ -1071,829 +1140,908 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="14" style="4" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="8" width="16.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14" style="3" customWidth="1"/>
+    <col min="13" max="13" width="6" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="14" style="4" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="K1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M20" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M22" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="I23" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="J23" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="J24" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="K25" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="3" t="s">
+      <c r="M25" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J25" t="s">
-        <v>26</v>
-      </c>
-      <c r="M25" s="16" t="s">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="B26" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="I26" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="M26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="J26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M26" s="16" t="s">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="B27" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="J27" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" s="4" t="s">
+      <c r="P27" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="M27" s="16" t="s">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P28" s="16" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M28" s="16" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P29" s="16" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M29" s="16" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P30" s="16" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M30" s="16" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P31" s="16" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M31" s="16" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P32" s="16" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M32" s="16" t="s">
+      <c r="Q32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P33" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="N32" t="s">
+      <c r="Q33" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M33" s="16" t="s">
+    <row r="34" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P34" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P35" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="N33" t="s">
+      <c r="Q35" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M34" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="N34" t="s">
+    <row r="36" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P36" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P37" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P38" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P39" s="16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M35" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="N35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M36" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="N36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M37" s="16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M38" s="16" t="s">
+    <row r="40" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P40" s="16" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M39" s="16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M40" s="16" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/Project Files/Words.xlsx
+++ b/Project Files/Words.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="286">
   <si>
     <t>Letters</t>
   </si>
   <si>
-    <t xml:space="preserve">Names </t>
-  </si>
-  <si>
     <t>Actions</t>
   </si>
   <si>
@@ -558,15 +555,9 @@
     <t>&lt;&lt;</t>
   </si>
   <si>
-    <t>..</t>
-  </si>
-  <si>
     <t>$$</t>
   </si>
   <si>
-    <t>%%</t>
-  </si>
-  <si>
     <t>()</t>
   </si>
   <si>
@@ -703,6 +694,189 @@
   </si>
   <si>
     <t>needing</t>
+  </si>
+  <si>
+    <t>Names 1</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>minus</t>
+  </si>
+  <si>
+    <t>plus</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>to the right</t>
+  </si>
+  <si>
+    <t>to the left</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>a lot of money</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>to be continued</t>
+  </si>
+  <si>
+    <t>etcetera</t>
+  </si>
+  <si>
+    <t>equals</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>^_^</t>
+  </si>
+  <si>
+    <t>\o/</t>
+  </si>
+  <si>
+    <t>hands up</t>
+  </si>
+  <si>
+    <t>&lt;0&gt;</t>
+  </si>
+  <si>
+    <t>eye see</t>
+  </si>
+  <si>
+    <t>=^.^=</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>&lt;&gt;&lt;</t>
+  </si>
+  <si>
+    <t>shift right</t>
+  </si>
+  <si>
+    <t>shift left</t>
+  </si>
+  <si>
+    <t>O.o</t>
+  </si>
+  <si>
+    <t>x_x</t>
+  </si>
+  <si>
+    <t>open parenthesis</t>
+  </si>
+  <si>
+    <t>close parenthesis</t>
+  </si>
+  <si>
+    <t>underscore</t>
+  </si>
+  <si>
+    <t>comma</t>
+  </si>
+  <si>
+    <t>semi-colon</t>
+  </si>
+  <si>
+    <t>greater than</t>
+  </si>
+  <si>
+    <t>less than</t>
+  </si>
+  <si>
+    <t>&gt;:(</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>tonge out</t>
+  </si>
+  <si>
+    <t>parantheses</t>
+  </si>
+  <si>
+    <t>:^)</t>
+  </si>
+  <si>
+    <t>big nose</t>
+  </si>
+  <si>
+    <t>colon</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>triangle</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>double exclamation</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>smiling</t>
+  </si>
+  <si>
+    <t>:'(</t>
+  </si>
+  <si>
+    <t>crying</t>
+  </si>
+  <si>
+    <t>laughing</t>
+  </si>
+  <si>
+    <t>xD</t>
+  </si>
+  <si>
+    <t>laughing eyes closed</t>
+  </si>
+  <si>
+    <t>winky face</t>
+  </si>
+  <si>
+    <t>big eyes surprised</t>
+  </si>
+  <si>
+    <t>big eyes</t>
+  </si>
+  <si>
+    <t>O_O</t>
   </si>
 </sst>
 </file>
@@ -1140,11 +1314,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,888 +1334,1082 @@
     <col min="13" max="13" width="6" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="14" style="4" customWidth="1"/>
     <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="J1" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="R8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="R11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="R15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="R16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="R17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="I18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="R18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="R19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="R20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="R21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="R22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="I23" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="R23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="R24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="I25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="K25" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M25" t="s">
         <v>24</v>
       </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="P25" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="R25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="R26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="R27" t="s">
+        <v>240</v>
+      </c>
+      <c r="S27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P28" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="R28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P29" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="R29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P30" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>183</v>
+      </c>
+      <c r="R30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P31" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>184</v>
+      </c>
+      <c r="R31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P32" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>189</v>
+      </c>
+      <c r="R32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P33" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>185</v>
+      </c>
+      <c r="R33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P34" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>187</v>
+      </c>
+      <c r="R34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P35" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="R35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P36" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="R36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P37" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="R37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>245</v>
+      </c>
+      <c r="R38" t="s">
+        <v>246</v>
+      </c>
+      <c r="S38" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P39" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="R39" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P40" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>244</v>
+      </c>
+      <c r="R40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P41" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="R41" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="M13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M15" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="M16" t="s">
-        <v>25</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="P17" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M18" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="M19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="P19" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="M20" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="M21" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="P21" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="M22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P22" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="M23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="M24" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="M25" t="s">
-        <v>25</v>
-      </c>
-      <c r="P25" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="M26" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="M27" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="P27" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P28" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P29" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P30" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P31" s="16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P32" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P33" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P34" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P35" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P36" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P37" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P38" s="16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P39" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P40" s="16" t="s">
-        <v>195</v>
+    </row>
+    <row r="42" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P42" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="R42" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P43" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="R43" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="44" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P44" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="R44" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P45" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="R45" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P46" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="R46" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P47" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="R47" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P48" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="R48" s="16" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/Project Files/Words.xlsx
+++ b/Project Files/Words.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="311">
   <si>
     <t>Letters</t>
   </si>
@@ -877,6 +877,81 @@
   </si>
   <si>
     <t>O_O</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Iguana</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>lettuce</t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>q-tip</t>
+  </si>
+  <si>
+    <t>umbrella</t>
+  </si>
+  <si>
+    <t>unicorn</t>
+  </si>
+  <si>
+    <t>vinegar</t>
+  </si>
+  <si>
+    <t>vacuum</t>
+  </si>
+  <si>
+    <t>yogurt</t>
+  </si>
+  <si>
+    <t>yo-yo</t>
+  </si>
+  <si>
+    <t>zebra</t>
+  </si>
+  <si>
+    <t>slippers</t>
+  </si>
+  <si>
+    <t>tacos</t>
+  </si>
+  <si>
+    <t>ant</t>
+  </si>
+  <si>
+    <t>basketball</t>
+  </si>
+  <si>
+    <t>daisy</t>
+  </si>
+  <si>
+    <t>eagle</t>
+  </si>
+  <si>
+    <t>hamburger</t>
+  </si>
+  <si>
+    <t>jell-o</t>
+  </si>
+  <si>
+    <t>ketchup</t>
+  </si>
+  <si>
+    <t>meatballs</t>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <t>rabbit</t>
   </si>
 </sst>
 </file>
@@ -1317,8 +1392,8 @@
   <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,6 +1491,9 @@
       <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="L2" s="3" t="s">
+        <v>301</v>
+      </c>
       <c r="M2" t="s">
         <v>13</v>
       </c>
@@ -1460,6 +1538,9 @@
       <c r="K3" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="L3" s="3" t="s">
+        <v>302</v>
+      </c>
       <c r="M3" t="s">
         <v>24</v>
       </c>
@@ -1536,6 +1617,9 @@
       <c r="K5" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="L5" s="3" t="s">
+        <v>303</v>
+      </c>
       <c r="M5" t="s">
         <v>24</v>
       </c>
@@ -1559,6 +1643,9 @@
       <c r="K6" s="15" t="s">
         <v>47</v>
       </c>
+      <c r="L6" s="3" t="s">
+        <v>304</v>
+      </c>
       <c r="M6" t="s">
         <v>24</v>
       </c>
@@ -1661,6 +1748,9 @@
       <c r="K9" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="L9" s="3" t="s">
+        <v>305</v>
+      </c>
       <c r="M9" t="s">
         <v>24</v>
       </c>
@@ -1687,6 +1777,12 @@
       <c r="I10" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="K10" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>286</v>
+      </c>
       <c r="M10" t="s">
         <v>24</v>
       </c>
@@ -1725,6 +1821,9 @@
       <c r="K11" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="L11" s="3" t="s">
+        <v>306</v>
+      </c>
       <c r="M11" t="s">
         <v>24</v>
       </c>
@@ -1757,6 +1856,9 @@
       <c r="K12" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="L12" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="M12" t="s">
         <v>24</v>
       </c>
@@ -1792,6 +1894,12 @@
       <c r="I13" s="14" t="s">
         <v>223</v>
       </c>
+      <c r="K13" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="M13" t="s">
         <v>24</v>
       </c>
@@ -1830,6 +1938,9 @@
       <c r="K14" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="L14" s="3" t="s">
+        <v>308</v>
+      </c>
       <c r="M14" t="s">
         <v>24</v>
       </c>
@@ -1891,6 +2002,9 @@
       <c r="K16" s="3" t="s">
         <v>117</v>
       </c>
+      <c r="L16" s="3" t="s">
+        <v>309</v>
+      </c>
       <c r="M16" t="s">
         <v>24</v>
       </c>
@@ -1952,6 +2066,12 @@
       <c r="I18" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="K18" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="M18" t="s">
         <v>24</v>
       </c>
@@ -1984,6 +2104,9 @@
       <c r="K19" s="3" t="s">
         <v>132</v>
       </c>
+      <c r="L19" s="3" t="s">
+        <v>310</v>
+      </c>
       <c r="M19" t="s">
         <v>24</v>
       </c>
@@ -2019,6 +2142,9 @@
       <c r="K20" s="3" t="s">
         <v>140</v>
       </c>
+      <c r="L20" s="3" t="s">
+        <v>299</v>
+      </c>
       <c r="M20" t="s">
         <v>24</v>
       </c>
@@ -2063,6 +2189,9 @@
       <c r="K21" s="3" t="s">
         <v>148</v>
       </c>
+      <c r="L21" s="3" t="s">
+        <v>300</v>
+      </c>
       <c r="M21" t="s">
         <v>24</v>
       </c>
@@ -2089,6 +2218,12 @@
       <c r="I22" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="K22" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>293</v>
+      </c>
       <c r="M22" t="s">
         <v>24</v>
       </c>
@@ -2109,6 +2244,12 @@
       <c r="I23" s="14" t="s">
         <v>157</v>
       </c>
+      <c r="K23" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>295</v>
+      </c>
       <c r="M23" t="s">
         <v>24</v>
       </c>
@@ -2187,6 +2328,12 @@
       <c r="I26" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="K26" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>297</v>
+      </c>
       <c r="M26" t="s">
         <v>24</v>
       </c>
@@ -2206,6 +2353,9 @@
       </c>
       <c r="I27" s="1" t="s">
         <v>175</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="M27" t="s">
         <v>24</v>

--- a/Project Files/Words.xlsx
+++ b/Project Files/Words.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="312">
   <si>
     <t>Letters</t>
   </si>
@@ -660,9 +660,6 @@
     <t>Tinkerbell</t>
   </si>
   <si>
-    <t>Pinoccio</t>
-  </si>
-  <si>
     <t>Hercules</t>
   </si>
   <si>
@@ -819,12 +816,6 @@
     <t>dead</t>
   </si>
   <si>
-    <t>tonge out</t>
-  </si>
-  <si>
-    <t>parantheses</t>
-  </si>
-  <si>
     <t>:^)</t>
   </si>
   <si>
@@ -840,12 +831,6 @@
     <t>triangle</t>
   </si>
   <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>double exclamation</t>
-  </si>
-  <si>
     <t>space</t>
   </si>
   <si>
@@ -952,6 +937,24 @@
   </si>
   <si>
     <t>rabbit</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Character Icon</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>doble exclamation</t>
+  </si>
+  <si>
+    <t>tongue out</t>
+  </si>
+  <si>
+    <t>parentheses</t>
   </si>
 </sst>
 </file>
@@ -1391,9 +1394,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>194</v>
@@ -1461,6 +1464,9 @@
       </c>
       <c r="P1" s="10" t="s">
         <v>5</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1480,10 +1486,10 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>11</v>
@@ -1492,7 +1498,7 @@
         <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
@@ -1504,7 +1510,7 @@
         <v>15</v>
       </c>
       <c r="R2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1539,7 +1545,7 @@
         <v>23</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>
@@ -1554,7 +1560,7 @@
         <v>27</v>
       </c>
       <c r="R3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1595,7 +1601,7 @@
         <v>36</v>
       </c>
       <c r="R4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1618,7 +1624,7 @@
         <v>42</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M5" t="s">
         <v>24</v>
@@ -1627,7 +1633,7 @@
         <v>43</v>
       </c>
       <c r="R5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1644,7 +1650,7 @@
         <v>47</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M6" t="s">
         <v>24</v>
@@ -1656,7 +1662,7 @@
         <v>49</v>
       </c>
       <c r="R6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1688,7 +1694,7 @@
         <v>56</v>
       </c>
       <c r="R7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1720,7 +1726,7 @@
         <v>63</v>
       </c>
       <c r="R8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1731,7 +1737,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>66</v>
@@ -1749,7 +1755,7 @@
         <v>70</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M9" t="s">
         <v>24</v>
@@ -1758,7 +1764,7 @@
         <v>71</v>
       </c>
       <c r="R9" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1772,16 +1778,16 @@
         <v>74</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M10" t="s">
         <v>24</v>
@@ -1790,7 +1796,7 @@
         <v>75</v>
       </c>
       <c r="R10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1801,7 +1807,7 @@
         <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>78</v>
@@ -1822,7 +1828,7 @@
         <v>82</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M11" t="s">
         <v>24</v>
@@ -1831,7 +1837,7 @@
         <v>83</v>
       </c>
       <c r="R11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1857,7 +1863,7 @@
         <v>90</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M12" t="s">
         <v>24</v>
@@ -1869,7 +1875,7 @@
         <v>92</v>
       </c>
       <c r="R12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1880,7 +1886,7 @@
         <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>95</v>
@@ -1892,13 +1898,13 @@
         <v>211</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M13" t="s">
         <v>24</v>
@@ -1910,7 +1916,7 @@
         <v>98</v>
       </c>
       <c r="R13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1939,7 +1945,7 @@
         <v>105</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M14" t="s">
         <v>24</v>
@@ -1951,7 +1957,7 @@
         <v>107</v>
       </c>
       <c r="R14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1965,7 +1971,7 @@
         <v>109</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>110</v>
@@ -1980,7 +1986,7 @@
         <v>112</v>
       </c>
       <c r="R15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -2003,7 +2009,7 @@
         <v>117</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M16" t="s">
         <v>24</v>
@@ -2012,7 +2018,7 @@
         <v>125</v>
       </c>
       <c r="R16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -2023,7 +2029,7 @@
         <v>119</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>120</v>
@@ -2053,7 +2059,7 @@
         <v>128</v>
       </c>
       <c r="R17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2067,10 +2073,10 @@
         <v>127</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M18" t="s">
         <v>24</v>
@@ -2079,7 +2085,7 @@
         <v>134</v>
       </c>
       <c r="R18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -2090,7 +2096,7 @@
         <v>130</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>210</v>
@@ -2105,7 +2111,7 @@
         <v>132</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M19" t="s">
         <v>24</v>
@@ -2117,7 +2123,7 @@
         <v>141</v>
       </c>
       <c r="R19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -2143,7 +2149,7 @@
         <v>140</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="M20" t="s">
         <v>24</v>
@@ -2152,7 +2158,7 @@
         <v>151</v>
       </c>
       <c r="R20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -2190,7 +2196,7 @@
         <v>148</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M21" t="s">
         <v>24</v>
@@ -2205,7 +2211,7 @@
         <v>155</v>
       </c>
       <c r="R21" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2219,10 +2225,10 @@
         <v>154</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M22" t="s">
         <v>24</v>
@@ -2231,7 +2237,7 @@
         <v>159</v>
       </c>
       <c r="R22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -2245,10 +2251,10 @@
         <v>157</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M23" t="s">
         <v>24</v>
@@ -2260,7 +2266,7 @@
         <v>165</v>
       </c>
       <c r="R23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -2271,7 +2277,7 @@
         <v>161</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>162</v>
@@ -2289,7 +2295,7 @@
         <v>169</v>
       </c>
       <c r="R24" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -2315,7 +2321,7 @@
         <v>173</v>
       </c>
       <c r="R25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -2329,10 +2335,10 @@
         <v>172</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M26" t="s">
         <v>24</v>
@@ -2341,7 +2347,7 @@
         <v>177</v>
       </c>
       <c r="R26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -2355,7 +2361,7 @@
         <v>175</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M27" t="s">
         <v>24</v>
@@ -2364,13 +2370,13 @@
         <v>176</v>
       </c>
       <c r="P27" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="R27" t="s">
         <v>239</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>240</v>
-      </c>
-      <c r="S27" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -2378,7 +2384,7 @@
         <v>178</v>
       </c>
       <c r="R28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -2386,7 +2392,7 @@
         <v>179</v>
       </c>
       <c r="R29" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -2397,7 +2403,7 @@
         <v>183</v>
       </c>
       <c r="R30" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -2408,7 +2414,7 @@
         <v>184</v>
       </c>
       <c r="R31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -2419,7 +2425,7 @@
         <v>189</v>
       </c>
       <c r="R32" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="16:19" x14ac:dyDescent="0.25">
@@ -2430,7 +2436,7 @@
         <v>185</v>
       </c>
       <c r="R33" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="16:19" x14ac:dyDescent="0.25">
@@ -2441,7 +2447,7 @@
         <v>187</v>
       </c>
       <c r="R34" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="16:19" x14ac:dyDescent="0.25">
@@ -2449,7 +2455,7 @@
         <v>191</v>
       </c>
       <c r="R35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="16:19" x14ac:dyDescent="0.25">
@@ -2457,7 +2463,7 @@
         <v>190</v>
       </c>
       <c r="R36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="16:19" x14ac:dyDescent="0.25">
@@ -2465,42 +2471,42 @@
         <v>192</v>
       </c>
       <c r="R37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P38" t="s">
+        <v>244</v>
+      </c>
+      <c r="R38" t="s">
         <v>245</v>
       </c>
-      <c r="R38" t="s">
-        <v>246</v>
-      </c>
       <c r="S38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P39" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="R39" t="s">
         <v>247</v>
-      </c>
-      <c r="R39" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="40" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P40" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>243</v>
+      </c>
+      <c r="R40" t="s">
         <v>249</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>244</v>
-      </c>
-      <c r="R40" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="41" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P41" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R41" t="s">
         <v>53</v>
@@ -2508,58 +2514,58 @@
     </row>
     <row r="42" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P42" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R42" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P43" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P44" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="R44" t="s">
         <v>263</v>
-      </c>
-      <c r="R44" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="45" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P45" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="R45" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P46" s="16" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="R46" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P47" s="16" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="R47" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P48" s="16" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="R48" s="16" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/Project Files/Words.xlsx
+++ b/Project Files/Words.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -864,15 +864,6 @@
     <t>O_O</t>
   </si>
   <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Iguana</t>
-  </si>
-  <si>
-    <t>Lion</t>
-  </si>
-  <si>
     <t>lettuce</t>
   </si>
   <si>
@@ -955,6 +946,15 @@
   </si>
   <si>
     <t>parentheses</t>
+  </si>
+  <si>
+    <t>ice cream</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>iguana</t>
   </si>
 </sst>
 </file>
@@ -1394,9 +1394,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V25" sqref="V25"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1466,7 @@
         <v>5</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1498,7 +1498,7 @@
         <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
@@ -1545,7 +1545,7 @@
         <v>23</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>
@@ -1624,7 +1624,7 @@
         <v>42</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M5" t="s">
         <v>24</v>
@@ -1650,7 +1650,7 @@
         <v>47</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M6" t="s">
         <v>24</v>
@@ -1755,7 +1755,7 @@
         <v>70</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M9" t="s">
         <v>24</v>
@@ -1764,7 +1764,7 @@
         <v>71</v>
       </c>
       <c r="R9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1784,10 +1784,10 @@
         <v>220</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="M10" t="s">
         <v>24</v>
@@ -1828,7 +1828,7 @@
         <v>82</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M11" t="s">
         <v>24</v>
@@ -1863,7 +1863,7 @@
         <v>90</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M12" t="s">
         <v>24</v>
@@ -1901,10 +1901,10 @@
         <v>222</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M13" t="s">
         <v>24</v>
@@ -1945,7 +1945,7 @@
         <v>105</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M14" t="s">
         <v>24</v>
@@ -2009,7 +2009,7 @@
         <v>117</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M16" t="s">
         <v>24</v>
@@ -2029,7 +2029,7 @@
         <v>119</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>120</v>
@@ -2073,10 +2073,10 @@
         <v>127</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M18" t="s">
         <v>24</v>
@@ -2111,7 +2111,7 @@
         <v>132</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M19" t="s">
         <v>24</v>
@@ -2149,7 +2149,7 @@
         <v>140</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M20" t="s">
         <v>24</v>
@@ -2196,7 +2196,7 @@
         <v>148</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M21" t="s">
         <v>24</v>
@@ -2211,7 +2211,7 @@
         <v>155</v>
       </c>
       <c r="R21" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2225,10 +2225,10 @@
         <v>154</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M22" t="s">
         <v>24</v>
@@ -2251,10 +2251,10 @@
         <v>157</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M23" t="s">
         <v>24</v>
@@ -2335,10 +2335,10 @@
         <v>172</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M26" t="s">
         <v>24</v>
@@ -2361,7 +2361,7 @@
         <v>175</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M27" t="s">
         <v>24</v>
@@ -2392,7 +2392,7 @@
         <v>179</v>
       </c>
       <c r="R29" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -2436,7 +2436,7 @@
         <v>185</v>
       </c>
       <c r="R33" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="16:19" x14ac:dyDescent="0.25">
